--- a/OREI_files/10-herd data/tuf_alignment_11_7_22.xlsx
+++ b/OREI_files/10-herd data/tuf_alignment_11_7_22.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_08D2D2915F3F64D1C7E498D7A0A1DE9289D90DEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43529097-AC37-4EBD-9F43-722A6E0446C0}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_08D2D2915F3F64D1C7E498D7A0A1DE9289D90DEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01170D2E-FF91-4CD1-9C69-E87F8D2DD6C1}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="2800" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="completed" sheetId="1" r:id="rId1"/>
+    <sheet name="rpob" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="101">
   <si>
     <t>sample</t>
   </si>
@@ -301,17 +302,65 @@
   </si>
   <si>
     <t>yes_from_sa_to_ pseudintermedius</t>
+  </si>
+  <si>
+    <t>gv89</t>
+  </si>
+  <si>
+    <t>ob16</t>
+  </si>
+  <si>
+    <t>staph cohnii</t>
+  </si>
+  <si>
+    <t>staph agnetis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gv136 </t>
+  </si>
+  <si>
+    <t>Staphylococcus cohnii</t>
+  </si>
+  <si>
+    <t>yes_noID_to_CNS</t>
+  </si>
+  <si>
+    <t>yes_from_noID_to_CNS</t>
+  </si>
+  <si>
+    <t>staphylococcus cohnii</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,81 +461,76 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,6 +552,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,220 +827,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.7265625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.1796875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="8.7265625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.453125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1796875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14" style="1" customWidth="1"/>
-    <col min="20" max="28" width="8.7265625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="14.453125" style="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" customWidth="1"/>
+    <col min="4" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="9" width="11.1796875" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="35.1796875" customWidth="1"/>
+    <col min="12" max="14" width="8.7265625" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" customWidth="1"/>
+    <col min="18" max="18" width="12.1796875" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:28" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-    </row>
-    <row r="2" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+    </row>
+    <row r="2" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>382</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="19">
+      <c r="K2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="17">
         <v>706</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="17">
         <v>706</v>
       </c>
-      <c r="N2" s="20">
-        <v>1</v>
-      </c>
-      <c r="O2" s="19">
+      <c r="N2" s="18">
+        <v>1</v>
+      </c>
+      <c r="O2" s="17">
         <v>0</v>
       </c>
-      <c r="P2" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="19">
+      <c r="P2" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="17">
         <v>2449249</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+    </row>
+    <row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>375</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3">
         <v>688</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>688</v>
       </c>
-      <c r="N3" s="5">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4">
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>0.99729999999999996</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>2449249</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+    </row>
+    <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -1000,102 +1025,89 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3">
         <v>699</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>699</v>
       </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>0.99739999999999995</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>2449249</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>382</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="19">
+      <c r="K5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="17">
         <v>706</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="17">
         <v>706</v>
       </c>
-      <c r="N5" s="20">
-        <v>1</v>
-      </c>
-      <c r="O5" s="19">
+      <c r="N5" s="18">
+        <v>1</v>
+      </c>
+      <c r="O5" s="17">
         <v>0</v>
       </c>
-      <c r="P5" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="19">
+      <c r="P5" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="17">
         <v>2449249</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+    </row>
+    <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
@@ -1107,42 +1119,42 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3">
         <v>704</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>704</v>
       </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>0.99739999999999995</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>2449249</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
@@ -1154,45 +1166,45 @@
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="19">
+      <c r="K7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="17">
         <v>695</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="17">
         <v>695</v>
       </c>
-      <c r="N7" s="20">
-        <v>1</v>
-      </c>
-      <c r="O7" s="19">
+      <c r="N7" s="18">
+        <v>1</v>
+      </c>
+      <c r="O7" s="17">
         <v>0</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="19">
         <v>0.99739999999999995</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="17">
         <v>2449249</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="R7" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F8">
@@ -1201,105 +1213,92 @@
       <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3">
         <v>702</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>702</v>
       </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2449249</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>381</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3">
         <v>704</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>704</v>
       </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2449249</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
+    </row>
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F10">
@@ -1308,45 +1307,45 @@
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="19">
+      <c r="K10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="17">
         <v>704</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="17">
         <v>704</v>
       </c>
-      <c r="N10" s="20">
-        <v>1</v>
-      </c>
-      <c r="O10" s="19">
+      <c r="N10" s="18">
+        <v>1</v>
+      </c>
+      <c r="O10" s="17">
         <v>0</v>
       </c>
-      <c r="P10" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="19">
+      <c r="P10" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="17">
         <v>2449249</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F11">
@@ -1355,42 +1354,42 @@
       <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="19">
+      <c r="K11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="17">
         <v>686</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="17">
         <v>686</v>
       </c>
-      <c r="N11" s="20">
-        <v>1</v>
-      </c>
-      <c r="O11" s="19">
+      <c r="N11" s="18">
+        <v>1</v>
+      </c>
+      <c r="O11" s="17">
         <v>0</v>
       </c>
-      <c r="P11" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="19">
+      <c r="P11" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="17">
         <v>2449249</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="R11" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:28" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
@@ -1404,32 +1403,32 @@
         <v>18</v>
       </c>
       <c r="H12"/>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J12"/>
-      <c r="K12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="K12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3">
         <v>614</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>614</v>
       </c>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
         <v>3E-171</v>
       </c>
-      <c r="P12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
         <v>2449249</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S12"/>
@@ -1443,77 +1442,64 @@
       <c r="AA12"/>
       <c r="AB12"/>
     </row>
-    <row r="13" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>367</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="19">
+      <c r="K13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="17">
         <v>678</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="17">
         <v>678</v>
       </c>
-      <c r="N13" s="20">
-        <v>1</v>
-      </c>
-      <c r="O13" s="19">
+      <c r="N13" s="18">
+        <v>1</v>
+      </c>
+      <c r="O13" s="17">
         <v>0</v>
       </c>
-      <c r="P13" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="19">
+      <c r="P13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="17">
         <v>2449249</v>
       </c>
-      <c r="R13" s="22" t="s">
+      <c r="R13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+    </row>
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F14">
@@ -1522,105 +1508,92 @@
       <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3">
         <v>710</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>710</v>
       </c>
-      <c r="N14" s="5">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>0.99739999999999995</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>2449249</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>373</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="17">
         <v>689</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="17">
         <v>689</v>
       </c>
-      <c r="N15" s="20">
-        <v>1</v>
-      </c>
-      <c r="O15" s="19">
+      <c r="N15" s="18">
+        <v>1</v>
+      </c>
+      <c r="O15" s="17">
         <v>0</v>
       </c>
-      <c r="P15" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="19">
+      <c r="P15" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="17">
         <v>807</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+    </row>
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F16">
@@ -1629,102 +1602,89 @@
       <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="19">
+      <c r="K16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="17">
         <v>699</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="17">
         <v>699</v>
       </c>
-      <c r="N16" s="20">
-        <v>1</v>
-      </c>
-      <c r="O16" s="19">
+      <c r="N16" s="18">
+        <v>1</v>
+      </c>
+      <c r="O16" s="17">
         <v>0</v>
       </c>
-      <c r="P16" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="19">
+      <c r="P16" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="17">
         <v>2449249</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>384</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="19">
+      <c r="K17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="17">
         <v>710</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="17">
         <v>710</v>
       </c>
-      <c r="N17" s="20">
-        <v>1</v>
-      </c>
-      <c r="O17" s="19">
+      <c r="N17" s="18">
+        <v>1</v>
+      </c>
+      <c r="O17" s="17">
         <v>0</v>
       </c>
-      <c r="P17" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="19">
+      <c r="P17" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="17">
         <v>2449249</v>
       </c>
-      <c r="R17" s="22" t="s">
+      <c r="R17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+    </row>
+    <row r="18" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
@@ -1736,42 +1696,42 @@
       <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="17">
         <v>669</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="17">
         <v>669</v>
       </c>
-      <c r="N18" s="20">
-        <v>1</v>
-      </c>
-      <c r="O18" s="19">
+      <c r="N18" s="18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="17">
         <v>0</v>
       </c>
-      <c r="P18" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="19">
+      <c r="P18" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="17">
         <v>807</v>
       </c>
-      <c r="R18" s="22" t="s">
+      <c r="R18" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D19" t="s">
@@ -1783,42 +1743,42 @@
       <c r="G19" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>510</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>510</v>
       </c>
-      <c r="N19" s="5">
-        <v>1</v>
-      </c>
-      <c r="O19" s="9">
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="7">
         <v>3.9999999999999999E-140</v>
       </c>
-      <c r="P19" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4">
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
         <v>807</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D20" t="s">
@@ -1830,42 +1790,42 @@
       <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3">
         <v>508</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>508</v>
       </c>
-      <c r="N20" s="5">
-        <v>1</v>
-      </c>
-      <c r="O20" s="9">
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7">
         <v>1E-139</v>
       </c>
-      <c r="P20" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="4">
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2449249</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
@@ -1877,706 +1837,598 @@
       <c r="G21" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="K21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3">
         <v>715</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>715</v>
       </c>
-      <c r="N21" s="5">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>0.99739999999999995</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>2449249</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>379</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>701</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>701</v>
       </c>
-      <c r="N22" s="5">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4">
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4">
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2706305</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="E23"/>
       <c r="F23">
         <v>340</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="H23"/>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J23"/>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>617</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>617</v>
       </c>
-      <c r="N23" s="5">
-        <v>1</v>
-      </c>
-      <c r="O23" s="9">
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="7">
         <v>2.9999999999999998E-172</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="5">
         <v>0.99409999999999998</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>807</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
     </row>
     <row r="24" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
-      <c r="E24"/>
       <c r="F24">
         <v>350</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="H24"/>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J24"/>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>636</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>636</v>
       </c>
-      <c r="N24" s="5">
-        <v>1</v>
-      </c>
-      <c r="O24" s="9">
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="7">
         <v>7.9999999999999996E-178</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <v>0.99429999999999996</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>807</v>
       </c>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
     </row>
     <row r="25" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>382</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="17">
         <v>695</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="17">
         <v>695</v>
       </c>
-      <c r="N25" s="20">
-        <v>1</v>
-      </c>
-      <c r="O25" s="19">
+      <c r="N25" s="18">
+        <v>1</v>
+      </c>
+      <c r="O25" s="17">
         <v>0</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="19">
         <v>0.99480000000000002</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="17">
         <v>807</v>
       </c>
-      <c r="R25" s="22" t="s">
+      <c r="R25" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
-      <c r="E26"/>
       <c r="F26">
         <v>304</v>
       </c>
       <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="H26"/>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J26"/>
-      <c r="K26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="K26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3">
         <v>562</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>562</v>
       </c>
-      <c r="N26" s="5">
-        <v>1</v>
-      </c>
-      <c r="O26" s="9">
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="7">
         <v>1E-155</v>
       </c>
-      <c r="P26" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="4">
+      <c r="P26" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
         <v>2449249</v>
       </c>
-      <c r="R26" s="7" t="s">
+      <c r="R26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
     </row>
     <row r="27" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>374</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="19">
+      <c r="K27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="17">
         <v>691</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="17">
         <v>691</v>
       </c>
-      <c r="N27" s="20">
-        <v>1</v>
-      </c>
-      <c r="O27" s="19">
+      <c r="N27" s="18">
+        <v>1</v>
+      </c>
+      <c r="O27" s="17">
         <v>0</v>
       </c>
-      <c r="P27" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="19">
+      <c r="P27" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="17">
         <v>2449249</v>
       </c>
-      <c r="R27" s="22" t="s">
+      <c r="R27" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
-      <c r="E28"/>
       <c r="F28">
         <v>378</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
       </c>
-      <c r="H28"/>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J28"/>
-      <c r="K28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="K28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="3">
         <v>699</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>699</v>
       </c>
-      <c r="N28" s="5">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4">
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="4">
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
         <v>2449249</v>
       </c>
-      <c r="R28" s="7" t="s">
+      <c r="R28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
     </row>
     <row r="29" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
         <v>347</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="13">
+      <c r="J29" s="9"/>
+      <c r="K29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="11">
         <v>592</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="11">
         <v>592</v>
       </c>
-      <c r="N29" s="14">
-        <v>1</v>
-      </c>
-      <c r="O29" s="15">
+      <c r="N29" s="12">
+        <v>1</v>
+      </c>
+      <c r="O29" s="13">
         <v>1.9999999999999999E-164</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="14">
         <v>0.96550000000000002</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="11">
         <v>2449249</v>
       </c>
-      <c r="R29" s="17" t="s">
+      <c r="R29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
-      <c r="E30"/>
       <c r="F30">
         <v>401</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
       </c>
-      <c r="H30"/>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J30"/>
-      <c r="K30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="4">
+      <c r="K30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="3">
         <v>713</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>713</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="4">
         <v>0.96</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="4">
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
         <v>2449249</v>
       </c>
-      <c r="R30" s="7" t="s">
+      <c r="R30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
     </row>
     <row r="31" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
-      <c r="E31"/>
       <c r="F31">
         <v>395</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
       </c>
-      <c r="H31"/>
       <c r="I31" t="s">
         <v>19</v>
       </c>
-      <c r="J31"/>
-      <c r="K31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="K31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="3">
         <v>678</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>678</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="4">
         <v>0.96</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="5">
         <v>0.98160000000000003</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="3">
         <v>2449249</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="R31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
     </row>
     <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
-      <c r="E32"/>
       <c r="F32">
         <v>310</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
       </c>
-      <c r="H32"/>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J32"/>
-      <c r="K32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="4">
+      <c r="K32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="3">
         <v>573</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <v>573</v>
       </c>
-      <c r="N32" s="5">
-        <v>1</v>
-      </c>
-      <c r="O32" s="9">
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="7">
         <v>5.0000000000000003E-159</v>
       </c>
-      <c r="P32" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="4">
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2449249</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="R32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-    </row>
-    <row r="33" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="26"/>
-    </row>
-    <row r="34" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="28" t="s">
+    </row>
+    <row r="33" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="29"/>
-    </row>
-    <row r="35" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="33" t="s">
+    </row>
+    <row r="35" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="29"/>
-    </row>
-    <row r="36" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="31" t="s">
+    </row>
+    <row r="36" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3631,4 +3483,73 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId94"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB553DC-8A6E-472A-B689-EA3499E005B3}">
+  <dimension ref="A2:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="20.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>